--- a/Aufgabe10/blub.xlsx
+++ b/Aufgabe10/blub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karch\Desktop\WissRechnen\Aufgabe10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A736F4-CFEF-4F8B-B470-B90E0C114767}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A92D6-B32C-49F0-923E-384D56ED58A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{3AF3D937-9AD1-41B2-9726-524061375C06}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>Level</t>
   </si>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -129,17 +129,224 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -456,14 +663,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4001A1-E1F4-4E9F-9F04-381ECD57E1D6}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.61328125" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" customWidth="1"/>
     <col min="9" max="9" width="16.07421875" customWidth="1"/>
+    <col min="10" max="10" width="15.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -656,6 +866,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
       <c r="I14" t="s">
         <v>18</v>
       </c>
@@ -672,366 +885,528 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C17">
+    <row r="17" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="14">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="14">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="14">
         <v>0.34200000000000003</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="10">
         <v>1.3E-15</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C18">
+      <c r="C18" s="14">
         <f>C17+1</f>
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <f xml:space="preserve"> D17*2</f>
         <v>16</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="14">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="14">
         <v>0.246</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="10">
         <v>2.2999999999999999E-15</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C19">
+      <c r="C19" s="14">
         <f t="shared" ref="C19:C23" si="1">C18+1</f>
         <v>5</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <f t="shared" ref="D19:D23" si="2" xml:space="preserve"> D18*2</f>
         <v>32</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="14">
         <v>0.374</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="14">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="10">
         <v>3.8000000000000002E-15</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C20">
+      <c r="C20" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="14">
         <v>0.624</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="14">
         <v>0.125</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="10">
         <v>9.3999999999999997E-15</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C21">
+      <c r="C21" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="14">
         <v>0.79700000000000004</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="14">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="10">
         <v>2.3E-14</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C22">
+      <c r="C22" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="14">
         <v>0.89800000000000002</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="14">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="10">
         <v>7.4999999999999996E-14</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C23">
+    <row r="23" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="12">
         <f t="shared" si="2"/>
         <v>512</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="15">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="15">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="13">
         <v>3.8E-13</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D26" t="s">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
+    <row r="26" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C28">
+    <row r="28" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="7">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="14">
         <v>8</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="9">
         <v>1.77E-2</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C29">
+      <c r="C29" s="7">
         <f>C28+1</f>
         <v>4</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="14">
         <f xml:space="preserve"> D28*2</f>
         <v>16</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="9">
         <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C30">
+      <c r="C30" s="7">
         <f t="shared" ref="C30:C34" si="3">C29+1</f>
         <v>5</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="14">
         <f t="shared" ref="D30:D34" si="4" xml:space="preserve"> D29*2</f>
         <v>32</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="9">
         <v>0.40100000000000002</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C31">
+      <c r="C31" s="7">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="14">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="9">
         <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C32">
+      <c r="C32" s="7">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="14">
         <v>800</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="9">
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C33">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C33" s="7">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="14">
         <v>800</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="9">
         <v>0.995</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C34">
+    <row r="34" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="11">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="15">
         <v>800</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="21">
         <v>0.996</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D37" t="s">
+    <row r="36" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C38" t="s">
+      <c r="I37" s="6"/>
+      <c r="J37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C39">
+      <c r="F38" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="7">
         <v>3</v>
       </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="7">
+        <v>25</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F39" s="8">
+        <v>4</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H39" s="7">
+        <v>4</v>
+      </c>
+      <c r="I39" s="9">
         <v>1.72E-3</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C40">
+      <c r="J39" s="8">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C40" s="7">
         <f>C39+1</f>
         <v>4</v>
       </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="7">
+        <v>49</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F40" s="8">
+        <v>4</v>
+      </c>
+      <c r="G40" s="8">
+        <v>3.32E-3</v>
+      </c>
+      <c r="H40" s="7">
+        <v>4</v>
+      </c>
+      <c r="I40" s="9">
         <v>3.5699999999999998E-3</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C41">
+      <c r="J40" s="8">
+        <v>29</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C41" s="7">
         <f t="shared" ref="C41:C45" si="5">C40+1</f>
         <v>5</v>
       </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="7">
+        <v>95</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F41" s="8">
+        <v>4</v>
+      </c>
+      <c r="G41" s="8">
+        <v>4.3400000000000001E-3</v>
+      </c>
+      <c r="H41" s="7">
+        <v>4</v>
+      </c>
+      <c r="I41" s="9">
         <v>4.81E-3</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C42">
+      <c r="J41" s="8">
+        <v>53</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C42" s="7">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="7">
+        <v>344</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="F42" s="8">
+        <v>4</v>
+      </c>
+      <c r="G42" s="8">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="H42" s="7">
         <v>5</v>
       </c>
-      <c r="E42">
+      <c r="I42" s="9">
         <v>6.0699999999999999E-3</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C43">
+      <c r="J42" s="8">
+        <v>99</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C43" s="7">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="7">
+        <v>800</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="F43" s="8">
+        <v>4</v>
+      </c>
+      <c r="G43" s="8">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="H43" s="7">
+        <v>4</v>
+      </c>
+      <c r="I43" s="9">
         <v>5.7800000000000004E-3</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C44">
+      <c r="J43" s="8">
+        <v>188</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C44" s="7">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="7">
+        <v>800</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.995</v>
+      </c>
+      <c r="F44" s="8">
+        <v>4</v>
+      </c>
+      <c r="G44" s="8">
+        <v>5.47E-3</v>
+      </c>
+      <c r="H44" s="7">
+        <v>4</v>
+      </c>
+      <c r="I44" s="9">
         <v>6.2700000000000004E-3</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C45">
+      <c r="J44" s="8">
+        <v>365</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="11">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="11">
+        <v>800</v>
+      </c>
+      <c r="E45" s="21">
+        <v>0.996</v>
+      </c>
+      <c r="F45" s="12">
+        <v>4</v>
+      </c>
+      <c r="G45" s="12">
+        <v>5.5700000000000003E-3</v>
+      </c>
+      <c r="H45" s="11">
         <v>5</v>
       </c>
-      <c r="E45">
+      <c r="I45" s="21">
         <v>7.2399999999999999E-3</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="J45" s="12">
+        <v>692</v>
+      </c>
+      <c r="K45" s="21">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C48" t="s">
         <v>0</v>
       </c>
